--- a/2014.01.21 - Gara Carbonera/Tabellone vuoto.xlsx
+++ b/2014.01.21 - Gara Carbonera/Tabellone vuoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\2014.01.21 - Gara Carbonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA0504-D5BA-4653-8135-4A842EC821FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7CA39-BA1C-4E32-8903-52DAC6245206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1F5764FB-45C2-4F87-A5B7-515589A5915C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">TAB.SINGOLI!$A$1:$K$117</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TAB.SINGOLI!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,10 +127,10 @@
     <t>2018 - 2019</t>
   </si>
   <si>
-    <t>MARRONE e NERA MASCHILE</t>
+    <t>MARRONE E NERA MASCHILE</t>
   </si>
   <si>
-    <t>MARRONE e NERA FEMMINILE</t>
+    <t>MARRONE E NERA FEMMINILE</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -590,11 +590,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -662,6 +673,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,35 +741,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1118,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1104,73 +1132,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="32" t="e">
+      <c r="B3" s="48"/>
+      <c r="C3" s="47" t="e">
         <f>VLOOKUP(C1,Foglio3!A2:B6,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="D3" s="47"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1191,13 +1216,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="4"/>
       <c r="G8" s="14"/>
       <c r="H8" s="3"/>
@@ -1206,13 +1231,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
@@ -1221,13 +1246,13 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="4"/>
       <c r="G10" s="14"/>
       <c r="H10" s="3"/>
@@ -1236,13 +1261,13 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
@@ -1251,13 +1276,13 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="4"/>
       <c r="G12" s="14"/>
       <c r="H12" s="3"/>
@@ -1266,13 +1291,13 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
@@ -1281,13 +1306,13 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="4"/>
       <c r="G14" s="14"/>
       <c r="H14" s="3"/>
@@ -1296,13 +1321,13 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
@@ -1311,13 +1336,13 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="4"/>
       <c r="G16" s="14"/>
       <c r="H16" s="3"/>
@@ -1326,13 +1351,13 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
@@ -1341,13 +1366,13 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="4"/>
       <c r="G18" s="14"/>
       <c r="H18" s="3"/>
@@ -1356,13 +1381,13 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
@@ -1371,13 +1396,13 @@
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="4"/>
       <c r="G20" s="14"/>
       <c r="H20" s="3"/>
@@ -1386,13 +1411,13 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
@@ -1401,13 +1426,13 @@
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="4"/>
       <c r="G22" s="14"/>
       <c r="H22" s="3"/>
@@ -1416,13 +1441,13 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
@@ -1431,13 +1456,13 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="4"/>
       <c r="G24" s="14"/>
       <c r="H24" s="3"/>
@@ -1446,13 +1471,13 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
@@ -1461,13 +1486,13 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="4"/>
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
@@ -1476,13 +1501,13 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
@@ -1491,13 +1516,13 @@
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="4"/>
       <c r="G28" s="14"/>
       <c r="H28" s="3"/>
@@ -1506,13 +1531,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
@@ -1521,13 +1546,13 @@
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="4"/>
       <c r="G30" s="14"/>
       <c r="H30" s="3"/>
@@ -1536,13 +1561,13 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="17"/>
@@ -1551,13 +1576,13 @@
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="4"/>
       <c r="G32" s="14"/>
       <c r="H32" s="3"/>
@@ -1566,13 +1591,13 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
@@ -1581,13 +1606,13 @@
       <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="4"/>
       <c r="G34" s="14"/>
       <c r="H34" s="3"/>
@@ -1596,13 +1621,13 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
@@ -1611,13 +1636,13 @@
       <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="4"/>
       <c r="G36" s="14"/>
       <c r="H36" s="3"/>
@@ -1626,13 +1651,13 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="15"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
@@ -1641,13 +1666,13 @@
       <c r="K37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="4"/>
       <c r="G38" s="14"/>
       <c r="H38" s="3"/>
@@ -1656,13 +1681,13 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
@@ -1671,13 +1696,13 @@
       <c r="K39" s="19"/>
     </row>
     <row r="40" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="4"/>
       <c r="G40" s="14"/>
       <c r="H40" s="3"/>
@@ -1686,13 +1711,13 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="15"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
@@ -1701,13 +1726,13 @@
       <c r="K41" s="19"/>
     </row>
     <row r="42" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="4"/>
       <c r="G42" s="14"/>
       <c r="H42" s="3"/>
@@ -1716,13 +1741,13 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
@@ -1731,13 +1756,13 @@
       <c r="K43" s="19"/>
     </row>
     <row r="44" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="4"/>
       <c r="G44" s="14"/>
       <c r="H44" s="3"/>
@@ -1746,13 +1771,13 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="15"/>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
@@ -1761,13 +1786,13 @@
       <c r="K45" s="19"/>
     </row>
     <row r="46" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="4"/>
       <c r="G46" s="14"/>
       <c r="H46" s="3"/>
@@ -1776,13 +1801,13 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="15"/>
       <c r="G47" s="16"/>
       <c r="H47" s="17"/>
@@ -1791,13 +1816,13 @@
       <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="4"/>
       <c r="G48" s="14"/>
       <c r="H48" s="3"/>
@@ -1806,13 +1831,13 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="15"/>
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
@@ -1821,13 +1846,13 @@
       <c r="K49" s="19"/>
     </row>
     <row r="50" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="4"/>
       <c r="G50" s="14"/>
       <c r="H50" s="3"/>
@@ -1836,13 +1861,13 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="15"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
@@ -1851,13 +1876,13 @@
       <c r="K51" s="19"/>
     </row>
     <row r="52" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="4"/>
       <c r="G52" s="14"/>
       <c r="H52" s="3"/>
@@ -1866,13 +1891,13 @@
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="15"/>
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
@@ -1881,13 +1906,13 @@
       <c r="K53" s="19"/>
     </row>
     <row r="54" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="4"/>
       <c r="G54" s="14"/>
       <c r="H54" s="3"/>
@@ -1896,13 +1921,13 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="15"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
@@ -1911,13 +1936,13 @@
       <c r="K55" s="19"/>
     </row>
     <row r="56" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="4"/>
       <c r="G56" s="14"/>
       <c r="H56" s="3"/>
@@ -1926,13 +1951,13 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="15"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
@@ -1941,13 +1966,13 @@
       <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="4"/>
       <c r="G58" s="14"/>
       <c r="H58" s="3"/>
@@ -1956,13 +1981,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="15"/>
       <c r="G59" s="16"/>
       <c r="H59" s="17"/>
@@ -1971,13 +1996,13 @@
       <c r="K59" s="19"/>
     </row>
     <row r="60" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="4"/>
       <c r="G60" s="14"/>
       <c r="H60" s="3"/>
@@ -1986,13 +2011,13 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="15"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
@@ -2001,13 +2026,13 @@
       <c r="K61" s="19"/>
     </row>
     <row r="62" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="4"/>
       <c r="G62" s="14"/>
       <c r="H62" s="3"/>
@@ -2016,13 +2041,13 @@
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="15"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
@@ -2031,13 +2056,13 @@
       <c r="K63" s="19"/>
     </row>
     <row r="64" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="4"/>
       <c r="G64" s="14"/>
       <c r="H64" s="3"/>
@@ -2046,13 +2071,13 @@
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="15"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
@@ -2061,13 +2086,13 @@
       <c r="K65" s="19"/>
     </row>
     <row r="66" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="4"/>
       <c r="G66" s="14"/>
       <c r="H66" s="3"/>
@@ -2076,13 +2101,13 @@
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="15"/>
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
@@ -2091,13 +2116,13 @@
       <c r="K67" s="19"/>
     </row>
     <row r="68" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="4"/>
       <c r="G68" s="14"/>
       <c r="H68" s="3"/>
@@ -2106,13 +2131,13 @@
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="15"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
@@ -2121,13 +2146,13 @@
       <c r="K69" s="19"/>
     </row>
     <row r="70" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="4"/>
       <c r="G70" s="14"/>
       <c r="H70" s="3"/>
@@ -2136,13 +2161,13 @@
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="15"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
@@ -2151,13 +2176,13 @@
       <c r="K71" s="19"/>
     </row>
     <row r="72" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="4"/>
       <c r="G72" s="14"/>
       <c r="H72" s="3"/>
@@ -2166,13 +2191,13 @@
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="15"/>
       <c r="G73" s="16"/>
       <c r="H73" s="17"/>
@@ -2181,13 +2206,13 @@
       <c r="K73" s="19"/>
     </row>
     <row r="74" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="4"/>
       <c r="G74" s="14"/>
       <c r="H74" s="3"/>
@@ -2196,13 +2221,13 @@
       <c r="K74" s="6"/>
     </row>
     <row r="75" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
@@ -2211,13 +2236,13 @@
       <c r="K75" s="19"/>
     </row>
     <row r="76" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="4"/>
       <c r="G76" s="14"/>
       <c r="H76" s="3"/>
@@ -2226,13 +2251,13 @@
       <c r="K76" s="6"/>
     </row>
     <row r="77" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
@@ -2241,13 +2266,13 @@
       <c r="K77" s="19"/>
     </row>
     <row r="78" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="4"/>
       <c r="G78" s="14"/>
       <c r="H78" s="3"/>
@@ -2256,13 +2281,13 @@
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="15"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
@@ -2271,13 +2296,13 @@
       <c r="K79" s="19"/>
     </row>
     <row r="80" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="4"/>
       <c r="G80" s="14"/>
       <c r="H80" s="3"/>
@@ -2286,13 +2311,13 @@
       <c r="K80" s="6"/>
     </row>
     <row r="81" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
       <c r="H81" s="17"/>
@@ -2301,13 +2326,13 @@
       <c r="K81" s="19"/>
     </row>
     <row r="82" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="4"/>
       <c r="G82" s="14"/>
       <c r="H82" s="3"/>
@@ -2316,13 +2341,13 @@
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="15"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
@@ -2331,13 +2356,13 @@
       <c r="K83" s="19"/>
     </row>
     <row r="84" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="4"/>
       <c r="G84" s="14"/>
       <c r="H84" s="3"/>
@@ -2346,13 +2371,13 @@
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
@@ -2361,13 +2386,13 @@
       <c r="K85" s="19"/>
     </row>
     <row r="86" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="4"/>
       <c r="G86" s="14"/>
       <c r="H86" s="3"/>
@@ -2376,13 +2401,13 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
       <c r="F87" s="15"/>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
@@ -2391,13 +2416,13 @@
       <c r="K87" s="19"/>
     </row>
     <row r="88" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
+      <c r="A88" s="38"/>
       <c r="B88" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="4"/>
       <c r="G88" s="14"/>
       <c r="H88" s="3"/>
@@ -2406,13 +2431,13 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
       <c r="F89" s="15"/>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
@@ -2421,13 +2446,13 @@
       <c r="K89" s="19"/>
     </row>
     <row r="90" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="4"/>
       <c r="G90" s="14"/>
       <c r="H90" s="3"/>
@@ -2436,13 +2461,13 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
       <c r="F91" s="15"/>
       <c r="G91" s="16"/>
       <c r="H91" s="17"/>
@@ -2451,13 +2476,13 @@
       <c r="K91" s="19"/>
     </row>
     <row r="92" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
       <c r="F92" s="4"/>
       <c r="G92" s="14"/>
       <c r="H92" s="3"/>
@@ -2466,13 +2491,13 @@
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
       <c r="F93" s="15"/>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
@@ -2481,13 +2506,13 @@
       <c r="K93" s="19"/>
     </row>
     <row r="94" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
       <c r="F94" s="4"/>
       <c r="G94" s="14"/>
       <c r="H94" s="3"/>
@@ -2496,13 +2521,13 @@
       <c r="K94" s="6"/>
     </row>
     <row r="95" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
       <c r="F95" s="15"/>
       <c r="G95" s="16"/>
       <c r="H95" s="17"/>
@@ -2511,13 +2536,13 @@
       <c r="K95" s="19"/>
     </row>
     <row r="96" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
       <c r="F96" s="4"/>
       <c r="G96" s="14"/>
       <c r="H96" s="3"/>
@@ -2526,13 +2551,13 @@
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
       <c r="F97" s="15"/>
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
@@ -2541,13 +2566,13 @@
       <c r="K97" s="19"/>
     </row>
     <row r="98" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
       <c r="F98" s="4"/>
       <c r="G98" s="14"/>
       <c r="H98" s="3"/>
@@ -2556,13 +2581,13 @@
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="24"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
       <c r="F99" s="15"/>
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
@@ -2571,13 +2596,13 @@
       <c r="K99" s="19"/>
     </row>
     <row r="100" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
       <c r="F100" s="4"/>
       <c r="G100" s="14"/>
       <c r="H100" s="3"/>
@@ -2586,13 +2611,13 @@
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
       <c r="F101" s="15"/>
       <c r="G101" s="16"/>
       <c r="H101" s="17"/>
@@ -2601,13 +2626,13 @@
       <c r="K101" s="19"/>
     </row>
     <row r="102" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="4"/>
       <c r="G102" s="14"/>
       <c r="H102" s="3"/>
@@ -2616,13 +2641,13 @@
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
       <c r="F103" s="15"/>
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
@@ -2631,13 +2656,13 @@
       <c r="K103" s="19"/>
     </row>
     <row r="104" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="4"/>
       <c r="G104" s="14"/>
       <c r="H104" s="3"/>
@@ -2646,13 +2671,13 @@
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
       <c r="F105" s="15"/>
       <c r="G105" s="16"/>
       <c r="H105" s="17"/>
@@ -2661,13 +2686,13 @@
       <c r="K105" s="19"/>
     </row>
     <row r="106" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="4"/>
       <c r="G106" s="14"/>
       <c r="H106" s="3"/>
@@ -2676,13 +2701,13 @@
       <c r="K106" s="6"/>
     </row>
     <row r="107" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
       <c r="F107" s="15"/>
       <c r="G107" s="16"/>
       <c r="H107" s="17"/>
@@ -2691,13 +2716,13 @@
       <c r="K107" s="19"/>
     </row>
     <row r="108" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
       <c r="F108" s="4"/>
       <c r="G108" s="14"/>
       <c r="H108" s="3"/>
@@ -2706,13 +2731,13 @@
       <c r="K108" s="6"/>
     </row>
     <row r="109" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
       <c r="F109" s="15"/>
       <c r="G109" s="16"/>
       <c r="H109" s="17"/>
@@ -2721,13 +2746,13 @@
       <c r="K109" s="19"/>
     </row>
     <row r="110" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
       <c r="F110" s="4"/>
       <c r="G110" s="14"/>
       <c r="H110" s="3"/>
@@ -2736,13 +2761,13 @@
       <c r="K110" s="6"/>
     </row>
     <row r="111" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="15"/>
       <c r="G111" s="16"/>
       <c r="H111" s="17"/>
@@ -2751,13 +2776,13 @@
       <c r="K111" s="19"/>
     </row>
     <row r="112" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
       <c r="F112" s="4"/>
       <c r="G112" s="14"/>
       <c r="H112" s="3"/>
@@ -2766,13 +2791,13 @@
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
+      <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
       <c r="F113" s="15"/>
       <c r="G113" s="16"/>
       <c r="H113" s="17"/>
@@ -2781,13 +2806,13 @@
       <c r="K113" s="19"/>
     </row>
     <row r="114" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
       <c r="F114" s="4"/>
       <c r="G114" s="14"/>
       <c r="H114" s="3"/>
@@ -2796,13 +2821,13 @@
       <c r="K114" s="6"/>
     </row>
     <row r="115" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
       <c r="F115" s="15"/>
       <c r="G115" s="16"/>
       <c r="H115" s="17"/>
@@ -2811,13 +2836,13 @@
       <c r="K115" s="19"/>
     </row>
     <row r="116" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="25"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
       <c r="F116" s="4"/>
       <c r="G116" s="14"/>
       <c r="H116" s="3"/>
@@ -2826,13 +2851,13 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="1:11" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="24"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
       <c r="F117" s="15"/>
       <c r="G117" s="16"/>
       <c r="H117" s="17"/>
@@ -3025,8 +3050,11 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Pagina &amp;P di &amp;N</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -3038,13 +3066,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B678D400-ED03-4644-A3A0-EC33DC9B59F0}">
           <x14:formula1>
-            <xm:f>Foglio3!$C$2:$C$3</xm:f>
+            <xm:f>Foglio3!$D$2:$D$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8:B117</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10CE2FEC-7969-4588-928B-8B65070DFE00}">
           <x14:formula1>
-            <xm:f>Foglio3!$D$2:$D$8</xm:f>
+            <xm:f>Foglio3!$F$2:$F$8</xm:f>
           </x14:formula1>
           <xm:sqref>F1</xm:sqref>
         </x14:dataValidation>
@@ -3056,101 +3084,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915F33A9-40BC-46B2-9217-AA9617FCEC3C}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="31" t="s">
         <v>29</v>
       </c>
     </row>
